--- a/bazy_projekt.xlsx
+++ b/bazy_projekt.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e11ade123241e18/Dokumenty/Studia/semestr6/Bazy danych/projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{8CA045E8-E3E7-483E-A8C8-8CF5162D7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA13EE99-CA8C-4846-BE5E-9CEA2276A4E3}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{8CA045E8-E3E7-483E-A8C8-8CF5162D7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A61946A-F2A9-4A44-814C-E29B30451CAE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71011B89-52BF-4F10-A8D7-10F7B7092A5E}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Suma kosztów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cena </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Wycieczka</t>
   </si>
@@ -80,17 +74,50 @@
     <t>Dojazd</t>
   </si>
   <si>
-    <t>cena paliwa na jeden parsek ok 200</t>
-  </si>
-  <si>
     <t>Zysk</t>
+  </si>
+  <si>
+    <t>Średni zysk</t>
+  </si>
+  <si>
+    <t>cena paliwa na jeden parsek:</t>
+  </si>
+  <si>
+    <t>Cena all (klient)</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>przewodnik</t>
+  </si>
+  <si>
+    <t>liczba lotów</t>
+  </si>
+  <si>
+    <t>liczba pasażerów</t>
+  </si>
+  <si>
+    <t>LOTY</t>
+  </si>
+  <si>
+    <t>Przewidywane zyski firmy (okres 2 letni)</t>
+  </si>
+  <si>
+    <t>PENSJE (miesięczne)</t>
+  </si>
+  <si>
+    <t>ZYSK</t>
+  </si>
+  <si>
+    <t>cały koszt działalności</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +126,77 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,18 +204,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1E779A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -137,6 +258,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,256 +581,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5CA1C-9842-4763-9DA4-DEB0FD49DC26}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="7.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-500</v>
+      </c>
+      <c r="E4" s="2">
+        <f>-$D$1*B4</f>
+        <v>-3000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9000</v>
+      </c>
+      <c r="G4" s="2">
+        <f>D4*C4+E4+F4</f>
+        <v>4500</v>
+      </c>
+      <c r="H4" s="5">
+        <f>AVERAGE(G4:G10)</f>
+        <v>3364.2857142857142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="3">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E10" si="0">-$D$1*B5</f>
+        <v>-1800</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G10" si="1">D5*C5+E5+F5</f>
+        <v>3200</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B6" s="2">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-450</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>-2200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>-1200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-500</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>-1400</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9000</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>3100</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>6000</v>
-      </c>
-      <c r="C2">
-        <f>E2*F2+G2</f>
-        <v>4500</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>500</v>
-      </c>
-      <c r="G2">
-        <f>200*D2</f>
-        <v>3000</v>
-      </c>
-      <c r="H2">
-        <f>B2-C2</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="D9" s="3">
+        <v>-450</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>-1000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="4">
+        <f>D9*C9+E9+F9</f>
+        <v>2650</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-700</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>-2000</v>
+      </c>
+      <c r="F10" s="2">
         <v>10000</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C2:C8" si="0">E3*F3+G3</f>
-        <v>8800</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>700</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G8" si="1">200*D3</f>
-        <v>1800</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H8" si="2">B3-C3</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>6000</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>450</v>
-      </c>
-      <c r="G4">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6000</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>400</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>7000</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>5900</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3500</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2350</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>450</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>8000</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>6900</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>700</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
+        <v>3100</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8">
+        <f>3*2*12*(B17+B18)+B21*B22*H4</f>
+        <v>7667142.8571428563</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bazy_projekt.xlsx
+++ b/bazy_projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e11ade123241e18/Dokumenty/Studia/semestr6/Bazy danych/projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{8CA045E8-E3E7-483E-A8C8-8CF5162D7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A61946A-F2A9-4A44-814C-E29B30451CAE}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{8CA045E8-E3E7-483E-A8C8-8CF5162D7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FE9562-EF12-48AF-B0E5-EEE9FC78568B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71011B89-52BF-4F10-A8D7-10F7B7092A5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Wycieczka</t>
   </si>
@@ -92,25 +92,22 @@
     <t>przewodnik</t>
   </si>
   <si>
-    <t>liczba lotów</t>
-  </si>
-  <si>
-    <t>liczba pasażerów</t>
-  </si>
-  <si>
-    <t>LOTY</t>
-  </si>
-  <si>
     <t>Przewidywane zyski firmy (okres 2 letni)</t>
   </si>
   <si>
-    <t>PENSJE (miesięczne)</t>
-  </si>
-  <si>
     <t>ZYSK</t>
   </si>
   <si>
     <t>cały koszt działalności</t>
+  </si>
+  <si>
+    <t>PENSJE (miesięczne, bez bonusu)</t>
+  </si>
+  <si>
+    <t>liczba płatności</t>
+  </si>
+  <si>
+    <t>LOTY (przewidywana liczba płatności)</t>
   </si>
 </sst>
 </file>
@@ -196,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -219,25 +216,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -581,15 +618,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5CA1C-9842-4763-9DA4-DEB0FD49DC26}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7265625" customWidth="1"/>
     <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="7.26953125" customWidth="1"/>
@@ -599,12 +637,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="9">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10">
         <v>200</v>
       </c>
     </row>
@@ -658,7 +696,7 @@
         <f>D4*C4+E4+F4</f>
         <v>4500</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <f>AVERAGE(G4:G10)</f>
         <v>3364.2857142857142</v>
       </c>
@@ -684,10 +722,10 @@
         <v>12000</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G10" si="1">D5*C5+E5+F5</f>
+        <f>D5*C5+E5+F5</f>
         <v>3200</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -710,10 +748,10 @@
         <v>8000</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G6:G10" si="1">D6*C6+E6+F6</f>
         <v>4000</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -739,7 +777,7 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -765,7 +803,7 @@
         <f t="shared" si="1"/>
         <v>3100</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -791,7 +829,7 @@
         <f>D9*C9+E9+F9</f>
         <v>2650</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -817,70 +855,62 @@
         <f t="shared" si="1"/>
         <v>3100</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>-9000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>-6000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="8">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8">
-        <f>3*2*12*(B17+B18)+B21*B22*H4</f>
-        <v>7667142.8571428563</v>
+      <c r="B24" s="3">
+        <f>3*2*12*(B17+B18)+B21*H4</f>
+        <v>-212014.28571428568</v>
       </c>
     </row>
   </sheetData>

--- a/bazy_projekt.xlsx
+++ b/bazy_projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e11ade123241e18/Dokumenty/Studia/semestr6/Bazy danych/projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{8CA045E8-E3E7-483E-A8C8-8CF5162D7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FE9562-EF12-48AF-B0E5-EEE9FC78568B}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{8CA045E8-E3E7-483E-A8C8-8CF5162D7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C2219D-452A-473A-8B4B-BB79D5E1BDCF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71011B89-52BF-4F10-A8D7-10F7B7092A5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Wycieczka</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>LOTY (przewidywana liczba płatności)</t>
+  </si>
+  <si>
+    <t>mnożnik</t>
   </si>
 </sst>
 </file>
@@ -265,16 +268,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -618,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5CA1C-9842-4763-9DA4-DEB0FD49DC26}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,17 +639,17 @@
     <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="10">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +674,14 @@
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -683,25 +692,27 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>-500</v>
+        <f>-500*$M$3</f>
+        <v>-1500</v>
       </c>
       <c r="E4" s="2">
-        <f>-$D$1*B4</f>
-        <v>-3000</v>
+        <f>-$D$1*B4*$M$3</f>
+        <v>-9000</v>
       </c>
       <c r="F4" s="2">
-        <v>9000</v>
+        <f>9000*$M$3</f>
+        <v>27000</v>
       </c>
       <c r="G4" s="2">
         <f>D4*C4+E4+F4</f>
-        <v>4500</v>
-      </c>
-      <c r="H4" s="7">
+        <v>13500</v>
+      </c>
+      <c r="H4" s="11">
         <f>AVERAGE(G4:G10)</f>
-        <v>3364.2857142857142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10092.857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -712,22 +723,24 @@
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>-700</v>
+        <f>-700*$M$3</f>
+        <v>-2100</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E10" si="0">-$D$1*B5</f>
-        <v>-1800</v>
+        <f>-$D$1*B5*$M$3</f>
+        <v>-5400</v>
       </c>
       <c r="F5" s="3">
-        <v>12000</v>
+        <f>12000*$M$3</f>
+        <v>36000</v>
       </c>
       <c r="G5" s="4">
         <f>D5*C5+E5+F5</f>
-        <v>3200</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9600</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -738,22 +751,24 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>-450</v>
+        <f>-450*$M$3</f>
+        <v>-1350</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>-2200</v>
+        <f>-$D$1*B6*$M$3</f>
+        <v>-6600</v>
       </c>
       <c r="F6" s="2">
-        <v>8000</v>
+        <f>8000*$M$3</f>
+        <v>24000</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G10" si="1">D6*C6+E6+F6</f>
-        <v>4000</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G6:G10" si="0">D6*C6+E6+F6</f>
+        <v>12000</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -764,22 +779,24 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>-400</v>
+        <f>-400*$M$3</f>
+        <v>-1200</v>
       </c>
       <c r="E7" s="4">
+        <f>-$D$1*B7*$M$3</f>
+        <v>-3600</v>
+      </c>
+      <c r="F7" s="3">
+        <f>7000*$M$3</f>
+        <v>21000</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>-1200</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9000</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -790,22 +807,24 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>-500</v>
+        <f>-500*$M$3</f>
+        <v>-1500</v>
       </c>
       <c r="E8" s="2">
+        <f>-$D$1*B8*$M$3</f>
+        <v>-4200</v>
+      </c>
+      <c r="F8" s="2">
+        <f>9000*$M$3</f>
+        <v>27000</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>-1400</v>
-      </c>
-      <c r="F8" s="2">
-        <v>9000</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>3100</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9300</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -816,22 +835,24 @@
         <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>-450</v>
+        <f>-450*$M$3</f>
+        <v>-1350</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>-1000</v>
+        <f>-$D$1*B9*$M$3</f>
+        <v>-3000</v>
       </c>
       <c r="F9" s="3">
-        <v>5000</v>
+        <f>5000*$M$3</f>
+        <v>15000</v>
       </c>
       <c r="G9" s="4">
         <f>D9*C9+E9+F9</f>
-        <v>2650</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7950</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -842,30 +863,32 @@
         <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>-700</v>
+        <f>-700*$M$3</f>
+        <v>-2100</v>
       </c>
       <c r="E10" s="2">
+        <f>-$D$1*B10*$M$3</f>
+        <v>-6000</v>
+      </c>
+      <c r="F10" s="2">
+        <f>10000*$M$3</f>
+        <v>30000</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>-2000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>3100</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+        <v>9300</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -896,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -910,7 +933,7 @@
       </c>
       <c r="B24" s="3">
         <f>3*2*12*(B17+B18)+B21*H4</f>
-        <v>-212014.28571428568</v>
+        <v>1301914.2857142859</v>
       </c>
     </row>
   </sheetData>

--- a/bazy_projekt.xlsx
+++ b/bazy_projekt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e11ade123241e18/Dokumenty/Studia/semestr6/Bazy danych/projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ploci\OneDrive\Dokumenty\Studia\semestr6\Bazy danych\projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{8CA045E8-E3E7-483E-A8C8-8CF5162D7C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C2219D-452A-473A-8B4B-BB79D5E1BDCF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7375CB-54C0-460C-B491-E64ADB58D790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71011B89-52BF-4F10-A8D7-10F7B7092A5E}"/>
+    <workbookView xWindow="0" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{71011B89-52BF-4F10-A8D7-10F7B7092A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Dni</t>
   </si>
   <si>
-    <t>wyżywienie/dzień</t>
-  </si>
-  <si>
     <t>SPA</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>mnożnik</t>
+  </si>
+  <si>
+    <t>wyżywienie,nocleg /dzień</t>
   </si>
 </sst>
 </file>
@@ -298,10 +298,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5CA1C-9842-4763-9DA4-DEB0FD49DC26}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,7 +628,7 @@
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
     <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.26953125" customWidth="1"/>
     <col min="6" max="6" width="17.6328125" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
@@ -641,12 +637,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
       <c r="D1" s="8">
-        <v>200</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -654,31 +650,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -692,29 +688,29 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <f>-500*$M$3</f>
-        <v>-1500</v>
+        <f>-600*$M$3</f>
+        <v>-3000</v>
       </c>
       <c r="E4" s="2">
-        <f>-$D$1*B4*$M$3</f>
-        <v>-9000</v>
+        <f t="shared" ref="E4:E10" si="0">-$D$1*B4*2</f>
+        <v>-13500</v>
       </c>
       <c r="F4" s="2">
         <f>9000*$M$3</f>
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="G4" s="2">
         <f>D4*C4+E4+F4</f>
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="H4" s="11">
         <f>AVERAGE(G4:G10)</f>
-        <v>10092.857142857143</v>
+        <v>17507.142857142859</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
@@ -724,25 +720,25 @@
       </c>
       <c r="D5" s="3">
         <f>-700*$M$3</f>
-        <v>-2100</v>
+        <v>-3500</v>
       </c>
       <c r="E5" s="4">
-        <f>-$D$1*B5*$M$3</f>
-        <v>-5400</v>
+        <f t="shared" si="0"/>
+        <v>-8100</v>
       </c>
       <c r="F5" s="3">
         <f>12000*$M$3</f>
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G5" s="4">
         <f>D5*C5+E5+F5</f>
-        <v>9600</v>
+        <v>16900</v>
       </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>11</v>
@@ -752,25 +748,25 @@
       </c>
       <c r="D6" s="2">
         <f>-450*$M$3</f>
-        <v>-1350</v>
+        <v>-2250</v>
       </c>
       <c r="E6" s="2">
-        <f>-$D$1*B6*$M$3</f>
-        <v>-6600</v>
+        <f t="shared" si="0"/>
+        <v>-9900</v>
       </c>
       <c r="F6" s="2">
         <f>8000*$M$3</f>
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G10" si="0">D6*C6+E6+F6</f>
-        <v>12000</v>
+        <f t="shared" ref="G6:G10" si="1">D6*C6+E6+F6</f>
+        <v>21100</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -780,25 +776,25 @@
       </c>
       <c r="D7" s="3">
         <f>-400*$M$3</f>
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="E7" s="4">
-        <f>-$D$1*B7*$M$3</f>
-        <v>-3600</v>
+        <f t="shared" si="0"/>
+        <v>-5400</v>
       </c>
       <c r="F7" s="3">
         <f>7000*$M$3</f>
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+        <f t="shared" si="1"/>
+        <v>15600</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -808,25 +804,25 @@
       </c>
       <c r="D8" s="2">
         <f>-500*$M$3</f>
-        <v>-1500</v>
+        <v>-2500</v>
       </c>
       <c r="E8" s="2">
-        <f>-$D$1*B8*$M$3</f>
-        <v>-4200</v>
+        <f t="shared" si="0"/>
+        <v>-6300</v>
       </c>
       <c r="F8" s="2">
         <f>9000*$M$3</f>
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>9300</v>
+        <f t="shared" si="1"/>
+        <v>16200</v>
       </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
@@ -836,25 +832,25 @@
       </c>
       <c r="D9" s="3">
         <f>-450*$M$3</f>
-        <v>-1350</v>
+        <v>-2250</v>
       </c>
       <c r="E9" s="4">
-        <f>-$D$1*B9*$M$3</f>
-        <v>-3000</v>
+        <f t="shared" si="0"/>
+        <v>-4500</v>
       </c>
       <c r="F9" s="3">
         <f>5000*$M$3</f>
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G9" s="4">
         <f>D9*C9+E9+F9</f>
-        <v>7950</v>
+        <v>13750</v>
       </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
@@ -864,25 +860,25 @@
       </c>
       <c r="D10" s="2">
         <f>-700*$M$3</f>
-        <v>-2100</v>
+        <v>-3500</v>
       </c>
       <c r="E10" s="2">
-        <f>-$D$1*B10*$M$3</f>
-        <v>-6000</v>
+        <f t="shared" si="0"/>
+        <v>-9000</v>
       </c>
       <c r="F10" s="2">
         <f>10000*$M$3</f>
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>9300</v>
+        <f t="shared" si="1"/>
+        <v>16500</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -890,33 +886,33 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>-9000</v>
+        <v>-16000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>-6000</v>
+        <v>-8500</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>236</v>
@@ -924,16 +920,16 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
         <f>3*2*12*(B17+B18)+B21*H4</f>
-        <v>1301914.2857142859</v>
+        <v>2367685.7142857146</v>
       </c>
     </row>
   </sheetData>
